--- a/R/HA-W 2017_08_16 (House 14)_newcleaned.xlsx
+++ b/R/HA-W 2017_08_16 (House 14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1056C19B-A013-4C9F-9AF8-FE7E0C8A3B2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2AF3ABB9-8406-4CEF-A324-32D03EDBF95D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="0" windowWidth="15020" windowHeight="16338" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="1114">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -3416,7 +3416,7 @@
     <numFmt numFmtId="166" formatCode="[$-14809]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3459,6 +3459,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3476,6 +3477,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3523,11 +3525,20 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3618,7 +3629,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3749,6 +3760,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12248,7 +12262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="166" showAll="0"/>
@@ -12382,7 +12396,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:AH10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="166" showAll="0"/>
@@ -29169,7 +29183,7 @@
   <dimension ref="A1:T353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -31677,7 +31691,9 @@
       <c r="J58" s="20"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
-      <c r="M58" s="42"/>
+      <c r="M58" s="49" t="s">
+        <v>984</v>
+      </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -31941,7 +31957,9 @@
       <c r="J64" s="20"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
-      <c r="M64" s="42"/>
+      <c r="M64" s="49" t="s">
+        <v>984</v>
+      </c>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
